--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl20-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Cxcr3</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.896566383062092</v>
+        <v>0.9119773333333333</v>
       </c>
       <c r="H2">
-        <v>0.896566383062092</v>
+        <v>2.735932</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.35968498539371</v>
+        <v>0.8058999999999999</v>
       </c>
       <c r="N2">
-        <v>2.35968498539371</v>
+        <v>2.4177</v>
       </c>
       <c r="O2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="P2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
       <c r="Q2">
-        <v>2.115614232520364</v>
+        <v>0.7349625329333332</v>
       </c>
       <c r="R2">
-        <v>2.115614232520364</v>
+        <v>6.6146627964</v>
       </c>
       <c r="S2">
-        <v>0.3183623724156452</v>
+        <v>0.09451456273674329</v>
       </c>
       <c r="T2">
-        <v>0.3183623724156452</v>
+        <v>0.0945145627367433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.896566383062092</v>
+        <v>0.9119773333333333</v>
       </c>
       <c r="H3">
-        <v>0.896566383062092</v>
+        <v>2.735932</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,96 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.05226187091684</v>
+        <v>2.375759</v>
       </c>
       <c r="N3">
-        <v>5.05226187091684</v>
+        <v>7.127277</v>
       </c>
       <c r="O3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="P3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
       </c>
       <c r="Q3">
-        <v>4.529688151890429</v>
+        <v>2.166638357462666</v>
       </c>
       <c r="R3">
-        <v>4.529688151890429</v>
+        <v>19.499745217164</v>
       </c>
       <c r="S3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308754</v>
       </c>
       <c r="T3">
-        <v>0.6816376275843548</v>
+        <v>0.2786249200308755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.9119773333333333</v>
+      </c>
+      <c r="H4">
+        <v>2.735932</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>5.345069333333334</v>
+      </c>
+      <c r="N4">
+        <v>16.035208</v>
+      </c>
+      <c r="O4">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="P4">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="Q4">
+        <v>4.874582077095112</v>
+      </c>
+      <c r="R4">
+        <v>43.871238693856</v>
+      </c>
+      <c r="S4">
+        <v>0.6268605172323812</v>
+      </c>
+      <c r="T4">
+        <v>0.6268605172323812</v>
       </c>
     </row>
   </sheetData>
